--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuh38\Documents\GitHub\project_fifa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\!FIFA\project_fifa\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,6 +47,36 @@
     <t>Verrichte werkzaamheden</t>
   </si>
   <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organiseren van Github </t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>Kevin heeft de huisstijl gemaakt</t>
+  </si>
+  <si>
+    <t>Kaan heeft de Logboek gemaakt</t>
+  </si>
+  <si>
+    <t>Instellen van bootstrap en voorebereiden van html.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t>Afspraken en opmerkingen</t>
+  </si>
+  <si>
+    <t>Iedereen heeft tijd besteed aan met het gebruiken van Github</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Groepsleden: </t>
     </r>
@@ -57,38 +87,8 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Keven nunes da silva, Joey Oonincx, Ben Smith Noël van pijnen</t>
+      <t>Keven nunes da silva, Joey Oonincx, Ben Smit, Noël van Bijnen</t>
     </r>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organiseren van Github </t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>Kevin heeft de huisstijl gemaakt</t>
-  </si>
-  <si>
-    <t>Kaan heeft de Logboek gemaakt</t>
-  </si>
-  <si>
-    <t>Instellen van bootstrap en voorebereiden van html.css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         </t>
-  </si>
-  <si>
-    <t>Afspraken en opmerkingen</t>
-  </si>
-  <si>
-    <t>Iedereen heeft tijd besteed aan met het gebruiken van Github</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -498,69 +498,69 @@
         <v>6</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
